--- a/model_roc_auc_scores.xlsx
+++ b/model_roc_auc_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,141 +451,77 @@
           <t>Naive Bayes</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0.943626</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Naive Bayes</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.943626</v>
+        <v>0.955278</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Logistic Regression</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>Linear SVM</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.954391</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Logistic Regression</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.955278</v>
+        <v>0.964499</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Linear SVM</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.970465</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Linear SVM</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.954391</v>
+        <v>0.961157</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.980799</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.964499</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.970465</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AdaBoost</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AdaBoost</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.961157</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.980799</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CatBoost</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>CatBoost</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
         <v>0.981142</v>
       </c>
     </row>
